--- a/guest_list.xlsx
+++ b/guest_list.xlsx
@@ -770,27 +770,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Николай</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>geraschencko@gmail.com</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Dating</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Dating</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>Баер</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">

--- a/guest_list.xlsx
+++ b/guest_list.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Заявки" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Заявки'!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Заявки'!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -15,7 +15,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -30,6 +30,20 @@
     <font>
       <color rgb="FF0000FF"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF333333"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Ui-sans-serif"/>
+      <color rgb="FF333333"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -52,16 +66,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +374,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -345,11 +382,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="19" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.88" customWidth="1" style="3" min="2" max="2"/>
-    <col width="17.13" customWidth="1" style="3" min="3" max="3"/>
-    <col width="22.75" customWidth="1" style="3" min="4" max="4"/>
-    <col width="19.5" customWidth="1" style="3" min="5" max="5"/>
+    <col width="19" customWidth="1" style="7" min="1" max="1"/>
+    <col width="22.88" customWidth="1" style="7" min="2" max="2"/>
+    <col width="17.13" customWidth="1" style="7" min="3" max="3"/>
+    <col width="22.75" customWidth="1" style="7" min="4" max="4"/>
+    <col width="19.5" customWidth="1" style="7" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1374,8 +1411,58 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>arhur.svaikovski@icloud.com</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Dating</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>team lead of mediabuy team</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Adverten</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>mbaff2021@gmail.com</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Dating</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>Media Buyer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$40"/>
+  <autoFilter ref="$A$1:$E$42"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
